--- a/doc/発表ネタ.xlsx
+++ b/doc/発表ネタ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2099751C-F4E1-4E3E-9888-8F8854125031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCE03C5-5971-4559-9399-7F63FCB390FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A116919C-0F35-4B75-AED0-09C4863990EA}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="7">
   <si>
     <t>苦労したこと</t>
     <rPh sb="0" eb="2">
@@ -60,6 +58,39 @@
     <t>チーム作業</t>
     <rPh sb="3" eb="5">
       <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキングのDAO。SQL文むずすぎ。</t>
+    <rPh sb="10" eb="14">
+      <t>sqlブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちょっとづつテストして作成を進めていく</t>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルーム分かれて作業を行うことで効率UP</t>
+    <rPh sb="3" eb="4">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウリツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -192,20 +223,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="56" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -220,19 +248,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="56" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -241,16 +269,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -258,12 +292,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -584,38 +612,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49770CC6-E61A-46D5-8A60-52DF790E51EE}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10" style="4" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="50.58203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="25.4140625" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="4"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="5" width="50.58203125" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" customWidth="1"/>
+    <col min="8" max="8" width="25.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9"/>
-      <c r="D1" s="20" t="s">
+      <c r="A1" s="8"/>
+      <c r="D1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="21" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="51.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="10"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="24"/>
-      <c r="H2" s="11"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
@@ -628,17 +655,17 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
     </row>
     <row r="5" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
@@ -651,17 +678,17 @@
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
     </row>
     <row r="7" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
@@ -674,17 +701,23 @@
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
@@ -697,17 +730,17 @@
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
     </row>
     <row r="11" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
@@ -720,201 +753,201 @@
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
     </row>
     <row r="12" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="12">
+      <c r="A13" s="11">
         <v>45096</v>
       </c>
-      <c r="B13" s="13" t="str">
+      <c r="B13" s="12" t="str">
         <f t="shared" si="0"/>
         <v>(月)</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
     </row>
     <row r="14" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
     </row>
     <row r="15" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <v>45097</v>
       </c>
-      <c r="B15" s="13" t="str">
+      <c r="B15" s="12" t="str">
         <f t="shared" si="0"/>
         <v>(火)</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
     </row>
     <row r="17" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="12">
+      <c r="A17" s="11">
         <v>45098</v>
       </c>
-      <c r="B17" s="13" t="str">
+      <c r="B17" s="12" t="str">
         <f t="shared" si="0"/>
         <v>(水)</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
     </row>
     <row r="19" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="12">
+      <c r="A19" s="11">
         <v>45099</v>
       </c>
-      <c r="B19" s="13" t="str">
+      <c r="B19" s="12" t="str">
         <f t="shared" si="0"/>
         <v>(木)</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
     </row>
     <row r="20" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
     </row>
     <row r="21" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="12">
+      <c r="A21" s="11">
         <v>45100</v>
       </c>
-      <c r="B21" s="13" t="str">
+      <c r="B21" s="12" t="str">
         <f t="shared" si="0"/>
         <v>(金)</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
     </row>
     <row r="22" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
     </row>
     <row r="23" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="16">
+      <c r="A23" s="15">
         <v>45103</v>
       </c>
-      <c r="B23" s="17" t="str">
+      <c r="B23" s="16" t="str">
         <f t="shared" si="0"/>
         <v>(月)</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
     </row>
     <row r="24" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
     </row>
     <row r="25" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="16">
+      <c r="A25" s="15">
         <v>45104</v>
       </c>
-      <c r="B25" s="17" t="str">
+      <c r="B25" s="16" t="str">
         <f t="shared" si="0"/>
         <v>(火)</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
     </row>
     <row r="26" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
     </row>
     <row r="27" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="16">
+      <c r="A27" s="15">
         <v>45105</v>
       </c>
-      <c r="B27" s="17" t="str">
+      <c r="B27" s="16" t="str">
         <f t="shared" si="0"/>
         <v>(水)</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -923,5 +956,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>